--- a/00.Doc/참고 문서/DB/table.columns.xlsx
+++ b/00.Doc/참고 문서/DB/table.columns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teufe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teufe\Documents\GitHub\BigData_VI_T-SA\00.Doc\참고 문서\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7799E-9595-47FD-A989-8BB4B2878697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3749D13D-0C26-4169-A689-4214D54F2F49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4245" windowWidth="13530" windowHeight="11385" activeTab="1" xr2:uid="{42C99EED-046C-4634-973E-6ACEE67090B8}"/>
+    <workbookView xWindow="4200" yWindow="2730" windowWidth="13530" windowHeight="11385" activeTab="1" xr2:uid="{42C99EED-046C-4634-973E-6ACEE67090B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Status_json" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="92">
   <si>
     <t>_json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +449,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB03ADF-ACD8-489A-A583-14D71D587B00}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1201,9 +1204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47907494-CC83-4972-A4F7-12DB0126687F}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1242,7 @@
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1346,7 +1349,7 @@
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
